--- a/outputs-GTDB-r202/c__Spirochaetia.xlsx
+++ b/outputs-GTDB-r202/c__Spirochaetia.xlsx
@@ -1208,7 +1208,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>o__Sphaerochaetales</t>
+          <t>o__Sphaerochaetales(reject)</t>
         </is>
       </c>
     </row>
